--- a/assets/pubs.xlsx
+++ b/assets/pubs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Analytics\Projects\academic-website\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1716E7AC-A742-41E6-BEA5-5A220B258DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF2969A-232E-4369-A8EE-12FBC21E1CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72" yWindow="144" windowWidth="22656" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
     <t>Are their collars still white? White-collar crime: Evidence from Paraguay 2000 - 2016</t>
   </si>
   <si>
-    <t>This research paper contributes to the literature of white-collar crime by using a unique data set of aggregated monthly white-collar crime incidents for Paraguay. The time series includes data from 2000 - 2016. Furthermore, a seasonal ARIMA model is presented to model the data. Findings show that white-collar crime has increased more than 800 percent and crime rate more than 640 percent respectively, with a peak in 2015. Fraud and violation of trust contribute to over 91 percent of aggregated white-collar crime. A prediction for 2017 indicates a slight decrease of 5.7 percent compared to 2016.</t>
+    <t>This research paper contributes to the literature of white-collar crime by using a unique data set of aggregated monthly white-collar crime incidents for Paraguay. The time series includes data from 2000 to 2016. Furthermore, a seasonal ARIMA model is presented to model the data. Findings show that white-collar crime has increased more than 800 percent and crime rate more than 640 percent respectively, with a peak in 2015. Fraud and violation of trust contribute to over 91 percent of aggregated white-collar crime. A prediction for 2017 indicates a slight decrease of 5.7 percent compared to 2016.</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
